--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Shank1-Sstr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Shank1-Sstr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.005513666666666667</v>
+        <v>0.007588666666666666</v>
       </c>
       <c r="H2">
-        <v>0.016541</v>
+        <v>0.022766</v>
       </c>
       <c r="I2">
-        <v>0.0030033923208228</v>
+        <v>0.00411465660709096</v>
       </c>
       <c r="J2">
-        <v>0.0030033923208228</v>
+        <v>0.00411465660709096</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2341473333333334</v>
+        <v>0.3730536666666667</v>
       </c>
       <c r="N2">
-        <v>0.7024420000000001</v>
+        <v>1.119161</v>
       </c>
       <c r="O2">
-        <v>0.1668286007494013</v>
+        <v>0.2333846330299144</v>
       </c>
       <c r="P2">
-        <v>0.1668286007494013</v>
+        <v>0.2333846330299144</v>
       </c>
       <c r="Q2">
-        <v>0.001291010346888889</v>
+        <v>0.002830979925111111</v>
       </c>
       <c r="R2">
-        <v>0.011619093122</v>
+        <v>0.025478819326</v>
       </c>
       <c r="S2">
-        <v>0.0005010517383843649</v>
+        <v>0.0009602976222900364</v>
       </c>
       <c r="T2">
-        <v>0.0005010517383843648</v>
+        <v>0.0009602976222900365</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.005513666666666667</v>
+        <v>0.007588666666666666</v>
       </c>
       <c r="H3">
-        <v>0.016541</v>
+        <v>0.022766</v>
       </c>
       <c r="I3">
-        <v>0.0030033923208228</v>
+        <v>0.00411465660709096</v>
       </c>
       <c r="J3">
-        <v>0.0030033923208228</v>
+        <v>0.00411465660709096</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.184769</v>
       </c>
       <c r="O3">
-        <v>0.5188783632394828</v>
+        <v>0.4556015723565537</v>
       </c>
       <c r="P3">
-        <v>0.5188783632394828</v>
+        <v>0.4556015723565538</v>
       </c>
       <c r="Q3">
-        <v>0.004015362669888889</v>
+        <v>0.005526494561555555</v>
       </c>
       <c r="R3">
-        <v>0.036138264029</v>
+        <v>0.049738451054</v>
       </c>
       <c r="S3">
-        <v>0.001558395291594566</v>
+        <v>0.001874644019897924</v>
       </c>
       <c r="T3">
-        <v>0.001558395291594566</v>
+        <v>0.001874644019897924</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.005513666666666667</v>
+        <v>0.007588666666666666</v>
       </c>
       <c r="H4">
-        <v>0.016541</v>
+        <v>0.022766</v>
       </c>
       <c r="I4">
-        <v>0.0030033923208228</v>
+        <v>0.00411465660709096</v>
       </c>
       <c r="J4">
-        <v>0.0030033923208228</v>
+        <v>0.00411465660709096</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4411166666666667</v>
+        <v>0.461934</v>
       </c>
       <c r="N4">
-        <v>1.32335</v>
+        <v>1.385802</v>
       </c>
       <c r="O4">
-        <v>0.3142930360111158</v>
+        <v>0.2889887078106916</v>
       </c>
       <c r="P4">
-        <v>0.3142930360111159</v>
+        <v>0.2889887078106916</v>
       </c>
       <c r="Q4">
-        <v>0.002432170261111111</v>
+        <v>0.003505463148</v>
       </c>
       <c r="R4">
-        <v>0.02188953235</v>
+        <v>0.031549168332</v>
       </c>
       <c r="S4">
-        <v>0.000943945290843869</v>
+        <v>0.001189089295967941</v>
       </c>
       <c r="T4">
-        <v>0.000943945290843869</v>
+        <v>0.001189089295967941</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,25 +714,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.571488333333333</v>
+        <v>0.007588666666666666</v>
       </c>
       <c r="H5">
-        <v>4.714465</v>
+        <v>0.022766</v>
       </c>
       <c r="I5">
-        <v>0.8560176517615539</v>
+        <v>0.00411465660709096</v>
       </c>
       <c r="J5">
-        <v>0.8560176517615538</v>
+        <v>0.00411465660709096</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2341473333333334</v>
+        <v>0.03520599999999999</v>
       </c>
       <c r="N5">
-        <v>0.7024420000000001</v>
+        <v>0.105618</v>
       </c>
       <c r="O5">
-        <v>0.1668286007494013</v>
+        <v>0.02202508680284024</v>
       </c>
       <c r="P5">
-        <v>0.1668286007494013</v>
+        <v>0.02202508680284025</v>
       </c>
       <c r="Q5">
-        <v>0.3679598026144444</v>
+        <v>0.0002671665986666666</v>
       </c>
       <c r="R5">
-        <v>3.31163822353</v>
+        <v>0.002404499387999999</v>
       </c>
       <c r="S5">
-        <v>0.1428082270601684</v>
+        <v>9.062566893505853E-05</v>
       </c>
       <c r="T5">
-        <v>0.1428082270601683</v>
+        <v>9.062566893505854E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>4.714465</v>
       </c>
       <c r="I6">
-        <v>0.8560176517615539</v>
+        <v>0.8520778600170905</v>
       </c>
       <c r="J6">
-        <v>0.8560176517615538</v>
+        <v>0.8520778600170905</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.7282563333333334</v>
+        <v>0.3730536666666667</v>
       </c>
       <c r="N6">
-        <v>2.184769</v>
+        <v>1.119161</v>
       </c>
       <c r="O6">
-        <v>0.5188783632394828</v>
+        <v>0.2333846330299144</v>
       </c>
       <c r="P6">
-        <v>0.5188783632394828</v>
+        <v>0.2333846330299144</v>
       </c>
       <c r="Q6">
-        <v>1.144446331509444</v>
+        <v>0.5862494848738888</v>
       </c>
       <c r="R6">
-        <v>10.300016983585</v>
+        <v>5.276245363865</v>
       </c>
       <c r="S6">
-        <v>0.4441690380501406</v>
+        <v>0.1988618786730034</v>
       </c>
       <c r="T6">
-        <v>0.4441690380501406</v>
+        <v>0.1988618786730035</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>4.714465</v>
       </c>
       <c r="I7">
-        <v>0.8560176517615539</v>
+        <v>0.8520778600170905</v>
       </c>
       <c r="J7">
-        <v>0.8560176517615538</v>
+        <v>0.8520778600170905</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4411166666666667</v>
+        <v>0.7282563333333334</v>
       </c>
       <c r="N7">
-        <v>1.32335</v>
+        <v>2.184769</v>
       </c>
       <c r="O7">
-        <v>0.3142930360111158</v>
+        <v>0.4556015723565537</v>
       </c>
       <c r="P7">
-        <v>0.3142930360111159</v>
+        <v>0.4556015723565538</v>
       </c>
       <c r="Q7">
-        <v>0.6932096953055554</v>
+        <v>1.144446331509444</v>
       </c>
       <c r="R7">
-        <v>6.23888725775</v>
+        <v>10.300016983585</v>
       </c>
       <c r="S7">
-        <v>0.2690403866512449</v>
+        <v>0.3882080127939939</v>
       </c>
       <c r="T7">
-        <v>0.2690403866512449</v>
+        <v>0.388208012793994</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2225053333333333</v>
+        <v>1.571488333333333</v>
       </c>
       <c r="H8">
-        <v>0.6675159999999999</v>
+        <v>4.714465</v>
       </c>
       <c r="I8">
-        <v>0.1212026134106978</v>
+        <v>0.8520778600170905</v>
       </c>
       <c r="J8">
-        <v>0.1212026134106978</v>
+        <v>0.8520778600170905</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2341473333333334</v>
+        <v>0.461934</v>
       </c>
       <c r="N8">
-        <v>0.7024420000000001</v>
+        <v>1.385802</v>
       </c>
       <c r="O8">
-        <v>0.1668286007494013</v>
+        <v>0.2889887078106916</v>
       </c>
       <c r="P8">
-        <v>0.1668286007494013</v>
+        <v>0.2889887078106916</v>
       </c>
       <c r="Q8">
-        <v>0.05209903045244445</v>
+        <v>0.7259238917699999</v>
       </c>
       <c r="R8">
-        <v>0.468891274072</v>
+        <v>6.533315025929999</v>
       </c>
       <c r="S8">
-        <v>0.02022006240247734</v>
+        <v>0.2462408797204383</v>
       </c>
       <c r="T8">
-        <v>0.02022006240247733</v>
+        <v>0.2462408797204383</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2225053333333333</v>
+        <v>1.571488333333333</v>
       </c>
       <c r="H9">
-        <v>0.6675159999999999</v>
+        <v>4.714465</v>
       </c>
       <c r="I9">
-        <v>0.1212026134106978</v>
+        <v>0.8520778600170905</v>
       </c>
       <c r="J9">
-        <v>0.1212026134106978</v>
+        <v>0.8520778600170905</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.7282563333333334</v>
+        <v>0.03520599999999999</v>
       </c>
       <c r="N9">
-        <v>2.184769</v>
+        <v>0.105618</v>
       </c>
       <c r="O9">
-        <v>0.5188783632394828</v>
+        <v>0.02202508680284024</v>
       </c>
       <c r="P9">
-        <v>0.5188783632394828</v>
+        <v>0.02202508680284025</v>
       </c>
       <c r="Q9">
-        <v>0.1620409182004444</v>
+        <v>0.05532581826333332</v>
       </c>
       <c r="R9">
-        <v>1.458368263804</v>
+        <v>0.4979323643699999</v>
       </c>
       <c r="S9">
-        <v>0.06288941366689066</v>
+        <v>0.01876708882965478</v>
       </c>
       <c r="T9">
-        <v>0.06288941366689065</v>
+        <v>0.01876708882965478</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2225053333333333</v>
+        <v>0.2365373333333334</v>
       </c>
       <c r="H10">
-        <v>0.6675159999999999</v>
+        <v>0.7096120000000001</v>
       </c>
       <c r="I10">
-        <v>0.1212026134106978</v>
+        <v>0.1282530837332439</v>
       </c>
       <c r="J10">
-        <v>0.1212026134106978</v>
+        <v>0.1282530837332439</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.4411166666666667</v>
+        <v>0.3730536666666667</v>
       </c>
       <c r="N10">
-        <v>1.32335</v>
+        <v>1.119161</v>
       </c>
       <c r="O10">
-        <v>0.3142930360111158</v>
+        <v>0.2333846330299144</v>
       </c>
       <c r="P10">
-        <v>0.3142930360111159</v>
+        <v>0.2333846330299144</v>
       </c>
       <c r="Q10">
-        <v>0.09815081095555554</v>
+        <v>0.08824111950355558</v>
       </c>
       <c r="R10">
-        <v>0.8833572985999999</v>
+        <v>0.7941700755320003</v>
       </c>
       <c r="S10">
-        <v>0.03809313734132979</v>
+        <v>0.02993229888203802</v>
       </c>
       <c r="T10">
-        <v>0.03809313734132979</v>
+        <v>0.02993229888203802</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.03630566666666667</v>
+        <v>0.2365373333333334</v>
       </c>
       <c r="H11">
-        <v>0.108917</v>
+        <v>0.7096120000000001</v>
       </c>
       <c r="I11">
-        <v>0.01977634250692564</v>
+        <v>0.1282530837332439</v>
       </c>
       <c r="J11">
-        <v>0.01977634250692564</v>
+        <v>0.1282530837332439</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2341473333333334</v>
+        <v>0.7282563333333334</v>
       </c>
       <c r="N11">
-        <v>0.7024420000000001</v>
+        <v>2.184769</v>
       </c>
       <c r="O11">
-        <v>0.1668286007494013</v>
+        <v>0.4556015723565537</v>
       </c>
       <c r="P11">
-        <v>0.1668286007494013</v>
+        <v>0.4556015723565538</v>
       </c>
       <c r="Q11">
-        <v>0.008500875034888892</v>
+        <v>0.1722598110697778</v>
       </c>
       <c r="R11">
-        <v>0.07650787531400002</v>
+        <v>1.550338299628</v>
       </c>
       <c r="S11">
-        <v>0.003299259548371312</v>
+        <v>0.05843230660844268</v>
       </c>
       <c r="T11">
-        <v>0.003299259548371312</v>
+        <v>0.05843230660844269</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,25 +1148,25 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.03630566666666667</v>
+        <v>0.2365373333333334</v>
       </c>
       <c r="H12">
-        <v>0.108917</v>
+        <v>0.7096120000000001</v>
       </c>
       <c r="I12">
-        <v>0.01977634250692564</v>
+        <v>0.1282530837332439</v>
       </c>
       <c r="J12">
-        <v>0.01977634250692564</v>
+        <v>0.1282530837332439</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7282563333333334</v>
+        <v>0.461934</v>
       </c>
       <c r="N12">
-        <v>2.184769</v>
+        <v>1.385802</v>
       </c>
       <c r="O12">
-        <v>0.5188783632394828</v>
+        <v>0.2889887078106916</v>
       </c>
       <c r="P12">
-        <v>0.5188783632394828</v>
+        <v>0.2889887078106916</v>
       </c>
       <c r="Q12">
-        <v>0.02643983168588889</v>
+        <v>0.109264636536</v>
       </c>
       <c r="R12">
-        <v>0.2379584851730001</v>
+        <v>0.9833817288240002</v>
       </c>
       <c r="S12">
-        <v>0.01026151623085698</v>
+        <v>0.03706369294080659</v>
       </c>
       <c r="T12">
-        <v>0.01026151623085698</v>
+        <v>0.03706369294080659</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,55 +1210,303 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.2365373333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.7096120000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.1282530837332439</v>
+      </c>
+      <c r="J13">
+        <v>0.1282530837332439</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.03520599999999999</v>
+      </c>
+      <c r="N13">
+        <v>0.105618</v>
+      </c>
+      <c r="O13">
+        <v>0.02202508680284024</v>
+      </c>
+      <c r="P13">
+        <v>0.02202508680284025</v>
+      </c>
+      <c r="Q13">
+        <v>0.008327533357333333</v>
+      </c>
+      <c r="R13">
+        <v>0.074947800216</v>
+      </c>
+      <c r="S13">
+        <v>0.002824785301956636</v>
+      </c>
+      <c r="T13">
+        <v>0.002824785301956636</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.028687</v>
+      </c>
+      <c r="H14">
+        <v>0.086061</v>
+      </c>
+      <c r="I14">
+        <v>0.01555439964257468</v>
+      </c>
+      <c r="J14">
+        <v>0.01555439964257468</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.3730536666666667</v>
+      </c>
+      <c r="N14">
+        <v>1.119161</v>
+      </c>
+      <c r="O14">
+        <v>0.2333846330299144</v>
+      </c>
+      <c r="P14">
+        <v>0.2333846330299144</v>
+      </c>
+      <c r="Q14">
+        <v>0.01070179053566667</v>
+      </c>
+      <c r="R14">
+        <v>0.096316114821</v>
+      </c>
+      <c r="S14">
+        <v>0.003630157852582923</v>
+      </c>
+      <c r="T14">
+        <v>0.003630157852582923</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.028687</v>
+      </c>
+      <c r="H15">
+        <v>0.086061</v>
+      </c>
+      <c r="I15">
+        <v>0.01555439964257468</v>
+      </c>
+      <c r="J15">
+        <v>0.01555439964257468</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.7282563333333334</v>
+      </c>
+      <c r="N15">
+        <v>2.184769</v>
+      </c>
+      <c r="O15">
+        <v>0.4556015723565537</v>
+      </c>
+      <c r="P15">
+        <v>0.4556015723565538</v>
+      </c>
+      <c r="Q15">
+        <v>0.02089148943433334</v>
+      </c>
+      <c r="R15">
+        <v>0.188023404909</v>
+      </c>
+      <c r="S15">
+        <v>0.007086608934219241</v>
+      </c>
+      <c r="T15">
+        <v>0.007086608934219242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.028687</v>
+      </c>
+      <c r="H16">
+        <v>0.086061</v>
+      </c>
+      <c r="I16">
+        <v>0.01555439964257468</v>
+      </c>
+      <c r="J16">
+        <v>0.01555439964257468</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.461934</v>
+      </c>
+      <c r="N16">
+        <v>1.385802</v>
+      </c>
+      <c r="O16">
+        <v>0.2889887078106916</v>
+      </c>
+      <c r="P16">
+        <v>0.2889887078106916</v>
+      </c>
+      <c r="Q16">
+        <v>0.013251500658</v>
+      </c>
+      <c r="R16">
+        <v>0.119263505922</v>
+      </c>
+      <c r="S16">
+        <v>0.00449504585347874</v>
+      </c>
+      <c r="T16">
+        <v>0.00449504585347874</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.028687</v>
+      </c>
+      <c r="H17">
+        <v>0.086061</v>
+      </c>
+      <c r="I17">
+        <v>0.01555439964257468</v>
+      </c>
+      <c r="J17">
+        <v>0.01555439964257468</v>
+      </c>
+      <c r="K17">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="L17">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G13">
-        <v>0.03630566666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.108917</v>
-      </c>
-      <c r="I13">
-        <v>0.01977634250692564</v>
-      </c>
-      <c r="J13">
-        <v>0.01977634250692564</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.4411166666666667</v>
-      </c>
-      <c r="N13">
-        <v>1.32335</v>
-      </c>
-      <c r="O13">
-        <v>0.3142930360111158</v>
-      </c>
-      <c r="P13">
-        <v>0.3142930360111159</v>
-      </c>
-      <c r="Q13">
-        <v>0.01601503466111111</v>
-      </c>
-      <c r="R13">
-        <v>0.14413531195</v>
-      </c>
-      <c r="S13">
-        <v>0.00621556672769734</v>
-      </c>
-      <c r="T13">
-        <v>0.00621556672769734</v>
+      <c r="M17">
+        <v>0.03520599999999999</v>
+      </c>
+      <c r="N17">
+        <v>0.105618</v>
+      </c>
+      <c r="O17">
+        <v>0.02202508680284024</v>
+      </c>
+      <c r="P17">
+        <v>0.02202508680284025</v>
+      </c>
+      <c r="Q17">
+        <v>0.001009954522</v>
+      </c>
+      <c r="R17">
+        <v>0.009089590698</v>
+      </c>
+      <c r="S17">
+        <v>0.0003425870022937746</v>
+      </c>
+      <c r="T17">
+        <v>0.0003425870022937746</v>
       </c>
     </row>
   </sheetData>
